--- a/Testing log excel.xlsx
+++ b/Testing log excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>What testing</t>
   </si>
@@ -108,6 +108,66 @@
   </si>
   <si>
     <t>expected program stops and player wins</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>start game</t>
+  </si>
+  <si>
+    <t>expected program has approximate timer</t>
+  </si>
+  <si>
+    <t>stop game</t>
+  </si>
+  <si>
+    <t>expected timer stops</t>
+  </si>
+  <si>
+    <t>Reset game</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>expected program resets and wont break</t>
+  </si>
+  <si>
+    <t>program resets and wont break</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> timer stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> program has approximate timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> program jetpack go right</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> program jetpack go left</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> program jetpack will fly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> program stops and player wins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> program increases fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> program decreases fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> program sets username to unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> program sets username</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> program sets difficulty</t>
   </si>
 </sst>
 </file>
@@ -434,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +532,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -483,7 +543,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,7 +568,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,7 +579,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -533,7 +593,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -544,7 +604,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -555,7 +615,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,7 +629,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,7 +640,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -591,7 +651,46 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
